--- a/reports/TS_Speck_significant_times.xlsx
+++ b/reports/TS_Speck_significant_times.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ATP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="MSU" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSU" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,18 +490,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.15:78.25</t>
+          <t>40.1:78.1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.121</v>
+        <v>0.127</v>
       </c>
       <c r="G2" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.13864166]</t>
+          <t>[0.08108391]</t>
         </is>
       </c>
     </row>
@@ -520,14 +520,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.05:88.8</t>
+          <t>41.148:88.701</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.052</v>
+        <v>0.064</v>
       </c>
       <c r="G3" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -548,14 +548,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38.949:98.3</t>
+          <t>37.946:98.4</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
       <c r="G4" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -576,14 +576,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41.499:97.8</t>
+          <t>41.15:98.102</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0.046</v>
       </c>
       <c r="G5" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -604,14 +604,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>39.199:102.651</t>
+          <t>38.599:102.45</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="G6" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.296:101.301</t>
+          <t>40.199:102.0</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="G7" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -660,14 +660,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>41.199:97.65</t>
+          <t>41.25:97.751</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -688,14 +688,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40.449:95.601</t>
+          <t>40.699:95.6</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.059</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -716,14 +716,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>41.099:87.751</t>
+          <t>42.3:87.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="G10" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -744,19 +744,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41.398:79.2</t>
+          <t>41.0:79.05</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.091</v>
+        <v>0.082</v>
       </c>
       <c r="G11" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>[0.7394465]</t>
-        </is>
+        <v>0.2844545454545454</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="12">
@@ -774,17 +772,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>41.8:76.251</t>
+          <t>42.2:76.4</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.081</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.9</v>
+        <v>0.2844545454545454</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[0.84207639]</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -802,18 +802,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>41.749:66.05</t>
+          <t>41.7:65.75</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.149</v>
+        <v>0.142</v>
       </c>
       <c r="G13" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.0066568]</t>
+          <t>[0.01581031]</t>
         </is>
       </c>
     </row>
@@ -832,14 +832,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>41.4:61.25</t>
+          <t>41.2:61.251</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.196</v>
+        <v>0.213</v>
       </c>
       <c r="G14" t="n">
-        <v>0.294</v>
+        <v>0.3195</v>
       </c>
       <c r="H14" t="n">
         <v>0.001</v>
@@ -860,14 +860,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40.5:59.35</t>
+          <t>40.499:58.85</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.29</v>
+        <v>0.309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3631764705882353</v>
+        <v>0.3817058823529412</v>
       </c>
       <c r="H15" t="n">
         <v>0.001</v>
@@ -888,14 +888,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>40.45:57.4</t>
+          <t>40.45:57.101</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.352</v>
+        <v>0.345</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4223999999999999</v>
+        <v>0.4139999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0.001</v>
@@ -916,14 +916,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39.5:53.9</t>
+          <t>39.65:53.95</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.6</v>
+        <v>0.578</v>
       </c>
       <c r="G17" t="n">
-        <v>0.63</v>
+        <v>0.6069</v>
       </c>
       <c r="H17" t="n">
         <v>0.001</v>
@@ -944,14 +944,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>36.9:51.15</t>
+          <t>36.9:51.1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.962</v>
+        <v>0.949</v>
       </c>
       <c r="G18" t="n">
-        <v>0.962</v>
+        <v>0.949</v>
       </c>
       <c r="H18" t="n">
         <v>0.001</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>35.899:50.9</t>
+          <t>35.899:50.95</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.88</v>
+        <v>0.859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9014634146341464</v>
+        <v>0.8799512195121951</v>
       </c>
       <c r="H19" t="n">
         <v>0.001</v>
@@ -1000,14 +1000,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>34.25:49.0</t>
+          <t>34.3:48.95</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.592</v>
+        <v>0.543</v>
       </c>
       <c r="G20" t="n">
-        <v>0.63</v>
+        <v>0.5847692307692308</v>
       </c>
       <c r="H20" t="n">
         <v>0.001</v>
@@ -1028,14 +1028,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33.35:48.2</t>
+          <t>33.55:48.051</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4807894736842105</v>
+        <v>0.4796842105263158</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
@@ -1056,14 +1056,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32.8:47.65</t>
+          <t>32.65:47.6</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.455</v>
+        <v>0.4381621621621622</v>
       </c>
       <c r="H22" t="n">
         <v>0.001</v>
@@ -1084,14 +1084,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32.65:47.9</t>
+          <t>32.749:47.75</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.401</v>
+        <v>0.366</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4551891891891892</v>
+        <v>0.427</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -1112,14 +1112,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.6:46.4</t>
+          <t>30.65:46.45</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.235</v>
+        <v>0.242</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3318</v>
+        <v>0.3504827586206897</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -1140,17 +1140,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29.55:45.3</t>
+          <t>29.899:45.5</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.163</v>
+        <v>0.149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.001</v>
+        <v>0.2844545454545454</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[0.0066568]</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1168,18 +1170,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29.6:45.151</t>
+          <t>29.3:45.2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.121</v>
+        <v>0.133</v>
       </c>
       <c r="G26" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.13864166]</t>
+          <t>[0.04364863]</t>
         </is>
       </c>
     </row>
@@ -1198,18 +1200,18 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29.099:45.501</t>
+          <t>29.299:45.65</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.132</v>
+        <v>0.142</v>
       </c>
       <c r="G27" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.04838843]</t>
+          <t>[0.01581031]</t>
         </is>
       </c>
     </row>
@@ -1228,18 +1230,18 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.05:45.7</t>
+          <t>28.05:45.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.149</v>
+        <v>0.148</v>
       </c>
       <c r="G28" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[0.0066568]</t>
+          <t>[0.00756075]</t>
         </is>
       </c>
     </row>
@@ -1258,18 +1260,18 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27.45:45.4</t>
+          <t>27.6:45.35</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.116</v>
+        <v>0.122</v>
       </c>
       <c r="G29" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.2107936]</t>
+          <t>[0.12653702]</t>
         </is>
       </c>
     </row>
@@ -1288,18 +1290,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>28.35:45.5</t>
+          <t>28.45:45.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.135</v>
+        <v>0.138</v>
       </c>
       <c r="G30" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.0352038]</t>
+          <t>[0.0251012]</t>
         </is>
       </c>
     </row>
@@ -1318,18 +1320,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27.7:44.95</t>
+          <t>27.699:45.05</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.128</v>
+        <v>0.11</v>
       </c>
       <c r="G31" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.07348986]</t>
+          <t>[0.32487009]</t>
         </is>
       </c>
     </row>
@@ -1348,18 +1350,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26.6:45.0</t>
+          <t>26.45:45.001</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>0.092</v>
       </c>
       <c r="G32" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.55471637]</t>
+          <t>[0.71892171]</t>
         </is>
       </c>
     </row>
@@ -1378,14 +1380,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28.549:47.05</t>
+          <t>28.399:46.9</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.186</v>
+        <v>0.205</v>
       </c>
       <c r="G33" t="n">
-        <v>0.294</v>
+        <v>0.3188888888888888</v>
       </c>
       <c r="H33" t="n">
         <v>0.001</v>
@@ -1406,19 +1408,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27.7:46.55</t>
+          <t>27.5:46.65</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.161</v>
+        <v>0.195</v>
       </c>
       <c r="G34" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>[0.00131969]</t>
-        </is>
+        <v>0.315</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="35">
@@ -1436,18 +1436,18 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>26.15:46.2</t>
+          <t>25.849:45.95</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="G35" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.12653702]</t>
+          <t>[0.13864166]</t>
         </is>
       </c>
     </row>
@@ -1466,14 +1466,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27.649:47.25</t>
+          <t>27.35:47.5</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G36" t="n">
-        <v>0.294</v>
+        <v>0.315</v>
       </c>
       <c r="H36" t="n">
         <v>0.001</v>
@@ -1494,14 +1494,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>27.1:46.75</t>
+          <t>27.1:46.95</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.176</v>
+        <v>0.18</v>
       </c>
       <c r="G37" t="n">
-        <v>0.294</v>
+        <v>0.315</v>
       </c>
       <c r="H37" t="n">
         <v>0.001</v>
@@ -1522,18 +1522,18 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26.0:45.85</t>
+          <t>26.15:45.901</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="G38" t="n">
-        <v>0.294</v>
+        <v>0.2844545454545454</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.22787368]</t>
+          <t>[0.19444512]</t>
         </is>
       </c>
     </row>
@@ -1552,14 +1552,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>26.199:47.0</t>
+          <t>26.3:47.5</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="G39" t="n">
-        <v>0.294</v>
+        <v>0.315</v>
       </c>
       <c r="H39" t="n">
         <v>0.001</v>
@@ -1580,14 +1580,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>28.15:48.0</t>
+          <t>28.05:48.05</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.281</v>
+        <v>0.271</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3631764705882353</v>
+        <v>0.3550909090909091</v>
       </c>
       <c r="H40" t="n">
         <v>0.001</v>
@@ -1608,14 +1608,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>26.8:48.55</t>
+          <t>26.65:48.7</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.237</v>
+        <v>0.258</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3318</v>
+        <v>0.3550909090909091</v>
       </c>
       <c r="H41" t="n">
         <v>0.001</v>
@@ -1636,14 +1636,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>26.85:49.05</t>
+          <t>26.8:48.801</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.274</v>
+        <v>0.279</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3631764705882353</v>
+        <v>0.3550909090909091</v>
       </c>
       <c r="H42" t="n">
         <v>0.001</v>
@@ -1664,14 +1664,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27.7:48.7</t>
+          <t>27.85:48.65</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.294</v>
+        <v>0.277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3631764705882353</v>
+        <v>0.3550909090909091</v>
       </c>
       <c r="H43" t="n">
         <v>0.001</v>
@@ -1748,14 +1748,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>221.398:274.6</t>
+          <t>221.6:274.9</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.912</v>
+        <v>0.914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.912</v>
+        <v>0.914</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -1776,14 +1776,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>218.4:270.3</t>
+          <t>218.698:269.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.882</v>
+        <v>0.854</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9035121951219512</v>
+        <v>0.8748292682926829</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
@@ -1804,14 +1804,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>214.698:264.4</t>
+          <t>214.8:264.3</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.612</v>
+        <v>0.632</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6947027027027027</v>
+        <v>0.7174054054054054</v>
       </c>
       <c r="H4" t="n">
         <v>0.001</v>
@@ -1832,14 +1832,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>213.1:263.6</t>
+          <t>213.9:263.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.536</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6626666666666666</v>
+        <v>0.6253333333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0.001</v>
@@ -1860,14 +1860,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>206.698:255.7</t>
+          <t>206.498:255.602</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.285</v>
+        <v>0.257</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3740625</v>
+        <v>0.3598</v>
       </c>
       <c r="H6" t="n">
         <v>0.001</v>
@@ -1888,14 +1888,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>202.3:254.7</t>
+          <t>203.1:255.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.203</v>
+        <v>0.208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.294</v>
+        <v>0.3012413793103448</v>
       </c>
       <c r="H7" t="n">
         <v>0.001</v>
@@ -1916,19 +1916,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>197.7:253.5</t>
+          <t>199.0:253.902</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.159</v>
+        <v>0.165</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2473333333333333</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[0.00174278]</t>
-        </is>
+        <v>0.2566666666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="9">
@@ -1946,18 +1944,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>196.2:249.7</t>
+          <t>197.5:249.7</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1512</v>
+        <v>0.14875</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.7599736]</t>
+          <t>[0.86259943]</t>
         </is>
       </c>
     </row>
@@ -1976,14 +1974,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>190.3:249.902</t>
+          <t>190.5:250.4</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1240909090909091</v>
+        <v>0.1296521739130435</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -2004,7 +2002,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>185.8:246.9</t>
+          <t>185.898:247.9</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -2032,14 +2030,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>183.598:244.1</t>
+          <t>183.5:244.3</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="G12" t="n">
-        <v>0.056</v>
+        <v>0.051</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -2060,14 +2058,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>182.2:244.002</t>
+          <t>182.495:243.8</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.029</v>
+        <v>0.023</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07164705882352941</v>
+        <v>0.06037500000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -2088,14 +2086,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>175.8:242.3</t>
+          <t>176.2:241.603</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="G14" t="n">
-        <v>0.056</v>
+        <v>0.0385</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -2116,14 +2114,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>170.898:239.5</t>
+          <t>171.5:240.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04581818181818181</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -2144,14 +2142,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>170.9:237.6</t>
+          <t>170.9:238.703</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.042</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -2172,14 +2170,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>172.098:239.1</t>
+          <t>171.4:239.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="G17" t="n">
-        <v>0.042</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -2200,14 +2198,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>173.898:241.3</t>
+          <t>173.4:241.6</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.015</v>
+        <v>0.013</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0525</v>
+        <v>0.042</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -2228,14 +2226,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>180.6:242.2</t>
+          <t>180.3:242.9</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04581818181818181</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -2256,14 +2254,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>185.1:245.3</t>
+          <t>184.598:245.602</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.027</v>
+        <v>0.035</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07087500000000001</v>
+        <v>0.08166666666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -2284,14 +2282,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>189.698:246.7</t>
+          <t>189.5:246.9</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.049</v>
+        <v>0.042</v>
       </c>
       <c r="G21" t="n">
-        <v>0.098</v>
+        <v>0.08820000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -2312,14 +2310,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>195.4:248.5</t>
+          <t>195.5:248.8</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.079</v>
+        <v>0.046</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1442608695652174</v>
+        <v>0.092</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -2340,14 +2338,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>205.2:256.403</t>
+          <t>205.1:256.8</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3696</v>
+        <v>0.3603870967741936</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -2368,14 +2366,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>208.7:261.1</t>
+          <t>209.8:260.9</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.404</v>
+        <v>0.392</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5141818181818182</v>
+        <v>0.4989090909090909</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -2396,14 +2394,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>212.398:260.5</t>
+          <t>212.695:260.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.483</v>
+        <v>0.505</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5843999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="H25" t="n">
         <v>0.001</v>
@@ -2424,14 +2422,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>219.6:270.2</t>
+          <t>219.6:270.302</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8956500000000001</v>
+        <v>0.8748292682926829</v>
       </c>
       <c r="H26" t="n">
         <v>0.001</v>
@@ -2452,14 +2450,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>218.3:265.702</t>
+          <t>218.8:265.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.704</v>
+        <v>0.723</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7781052631578946</v>
+        <v>0.7991052631578947</v>
       </c>
       <c r="H27" t="n">
         <v>0.001</v>
@@ -2480,14 +2478,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>228.5:274.9</t>
+          <t>228.998:274.8</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.776</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8744615384615385</v>
+        <v>0.8356923076923077</v>
       </c>
       <c r="H28" t="n">
         <v>0.001</v>
@@ -2508,14 +2506,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>234.0:283.8</t>
+          <t>233.9:283.6</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.487</v>
+        <v>0.455</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5843999999999999</v>
+        <v>0.5620588235294117</v>
       </c>
       <c r="H29" t="n">
         <v>0.001</v>
@@ -2536,14 +2534,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>239.1:289.0</t>
+          <t>239.8:289.3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.281</v>
+        <v>0.277</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3740625</v>
+        <v>0.3635625000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0.001</v>
@@ -2564,14 +2562,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>242.0:295.2</t>
+          <t>241.8:295.2</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.179</v>
+        <v>0.198</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685</v>
+        <v>0.297</v>
       </c>
       <c r="H31" t="n">
         <v>0.001</v>
@@ -2592,18 +2590,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>245.3:303.902</t>
+          <t>244.7:303.4</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.118</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1505</v>
+        <v>0.1906153846153846</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.84207639]</t>
+          <t>[0.17907401]</t>
         </is>
       </c>
     </row>
@@ -2622,18 +2620,18 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>243.2:302.9</t>
+          <t>243.9:303.0</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.129</v>
+        <v>0.118</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2083846153846154</v>
+        <v>0.1906153846153846</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.06637348]</t>
+          <t>[0.17907401]</t>
         </is>
       </c>
     </row>
@@ -2652,14 +2650,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>249.4:321.2</t>
+          <t>248.5:320.302</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.047</v>
+        <v>0.063</v>
       </c>
       <c r="G34" t="n">
-        <v>0.098</v>
+        <v>0.1202727272727273</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -2680,14 +2678,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>254.595:331.4</t>
+          <t>254.498:332.002</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.034</v>
+        <v>0.029</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07933333333333334</v>
+        <v>0.07164705882352941</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -2708,14 +2706,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>257.6:329.1</t>
+          <t>258.0:329.3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="G36" t="n">
-        <v>0.056</v>
+        <v>0.0532</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -2736,14 +2734,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>260.7:341.6</t>
+          <t>261.998:341.6</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0.01</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04581818181818181</v>
+        <v>0.0385</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -2764,14 +2762,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>263.998:354.6</t>
+          <t>262.9:356.0</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G38" t="n">
-        <v>0.042</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -2792,14 +2790,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>262.5:362.402</t>
+          <t>263.5:361.805</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.04581818181818181</v>
+        <v>0.0385</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -2820,14 +2818,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>266.698:372.602</t>
+          <t>268.398:372.5</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="G40" t="n">
-        <v>0.042</v>
+        <v>0.03733333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -2848,14 +2846,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>268.795:375.4</t>
+          <t>268.295:376.1</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.042</v>
+        <v>0.021</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -2876,14 +2874,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>267.898:385.102</t>
+          <t>269.498:383.9</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.042</v>
+        <v>0.021</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -2904,14 +2902,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>274.298:396.6</t>
+          <t>273.398:398.1</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G43" t="n">
-        <v>0.042</v>
+        <v>0.028</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -2988,14 +2986,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>192.1:259.902</t>
+          <t>191.7:259.402</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.836</v>
+        <v>0.83</v>
       </c>
       <c r="G2" t="n">
-        <v>0.856390243902439</v>
+        <v>0.8574146341463414</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -3016,14 +3014,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>183.7:252.0</t>
+          <t>184.6:251.6</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.57</v>
+        <v>0.548</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6649999999999999</v>
+        <v>0.6393333333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
@@ -3044,11 +3042,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>180.3:247.0</t>
+          <t>179.8:247.6</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.46</v>
+        <v>0.452</v>
       </c>
       <c r="G4" t="n">
         <v>0.5916</v>
@@ -3072,11 +3070,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>181.498:249.7</t>
+          <t>181.0:248.902</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.491</v>
+        <v>0.476</v>
       </c>
       <c r="G5" t="n">
         <v>0.5916</v>
@@ -3100,7 +3098,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>182.8:248.0</t>
+          <t>181.6:247.802</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3128,14 +3126,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>185.9:253.2</t>
+          <t>186.598:251.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.602</v>
+        <v>0.621</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6833513513513514</v>
+        <v>0.6863684210526315</v>
       </c>
       <c r="H7" t="n">
         <v>0.001</v>
@@ -3156,14 +3154,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>187.2:252.402</t>
+          <t>186.898:252.3</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.624</v>
+        <v>0.6</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6896842105263158</v>
+        <v>0.6810810810810811</v>
       </c>
       <c r="H8" t="n">
         <v>0.001</v>
@@ -3184,14 +3182,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>194.795:261.6</t>
+          <t>195.4:261.0</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.927</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.927</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0.001</v>
@@ -3212,14 +3210,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>201.7:267.3</t>
+          <t>201.1:266.0</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.819</v>
+        <v>0.837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.856390243902439</v>
+        <v>0.8574146341463414</v>
       </c>
       <c r="H10" t="n">
         <v>0.001</v>
@@ -3240,14 +3238,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>202.698:271.502</t>
+          <t>202.4:270.7</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.716</v>
+        <v>0.741</v>
       </c>
       <c r="G11" t="n">
-        <v>0.771076923076923</v>
+        <v>0.7979999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0.001</v>
@@ -3268,11 +3266,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>208.5:280.102</t>
+          <t>208.5:280.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.469</v>
+        <v>0.489</v>
       </c>
       <c r="G12" t="n">
         <v>0.5916</v>
@@ -3296,14 +3294,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>209.6:286.4</t>
+          <t>210.698:286.903</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.411</v>
+        <v>0.433</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5568387096774193</v>
+        <v>0.5866451612903225</v>
       </c>
       <c r="H13" t="n">
         <v>0.001</v>
@@ -3324,14 +3322,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>215.3:292.7</t>
+          <t>214.9:292.4</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3961999999999999</v>
+        <v>0.3947999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0.001</v>
@@ -3352,14 +3350,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>216.698:303.5</t>
+          <t>216.7:304.3</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.227</v>
+        <v>0.218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3287586206896552</v>
+        <v>0.3157241379310345</v>
       </c>
       <c r="H15" t="n">
         <v>0.001</v>
@@ -3380,18 +3378,18 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>221.3:306.202</t>
+          <t>220.698:307.003</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.121</v>
+        <v>0.156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1815</v>
+        <v>0.234</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.13864166]</t>
+          <t>[0.00263739]</t>
         </is>
       </c>
     </row>
@@ -3410,14 +3408,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>227.9:321.1</t>
+          <t>227.8:320.5</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1011111111111111</v>
+        <v>0.1135555555555555</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -3438,14 +3436,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>231.6:327.405</t>
+          <t>231.6:327.002</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.051</v>
+        <v>0.054</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08238461538461538</v>
+        <v>0.08723076923076922</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -3466,14 +3464,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>233.7:346.5</t>
+          <t>233.7:346.2</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.026</v>
+        <v>0.041</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0455</v>
+        <v>0.06888</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -3494,14 +3492,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>238.5:357.6</t>
+          <t>237.898:357.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04704</v>
+        <v>0.03652173913043478</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -3522,14 +3520,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>235.398:356.3</t>
+          <t>236.198:356.3</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0455</v>
+        <v>0.03675</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -3550,14 +3548,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>241.6:365.802</t>
+          <t>240.9:366.5</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04009090909090909</v>
+        <v>0.022</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -3578,14 +3576,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>245.6:378.405</t>
+          <t>245.1:378.1</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="G23" t="n">
-        <v>0.034</v>
+        <v>0.03054545454545455</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -3606,14 +3604,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>247.998:386.702</t>
+          <t>246.6:387.1</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0168</v>
+        <v>0.0147</v>
       </c>
       <c r="H24" t="n">
         <v>0.9</v>
@@ -3634,14 +3632,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>250.695:397.6</t>
+          <t>250.6:394.602</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01482352941176471</v>
+        <v>0.0147</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -3662,14 +3660,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>254.5:395.605</t>
+          <t>255.6:395.502</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01547368421052632</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -3690,14 +3688,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>255.1:404.105</t>
+          <t>253.698:402.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01482352941176471</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -3718,14 +3716,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>261.3:414.303</t>
+          <t>260.798:414.6</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00525</v>
+        <v>0.007875</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -3746,14 +3744,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>260.698:421.6</t>
+          <t>260.2:421.105</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01482352941176471</v>
+        <v>0.007636363636363636</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -3774,14 +3772,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>264.598:426.9</t>
+          <t>262.998:425.3</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007</v>
+        <v>0.00525</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -3802,14 +3800,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>262.798:433.405</t>
+          <t>264.2:436.4</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01547368421052632</v>
+        <v>0.007636363636363636</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -3830,14 +3828,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>265.498:442.0</t>
+          <t>264.6:441.705</t>
         </is>
       </c>
       <c r="F32" t="n">
         <v>0.003</v>
       </c>
       <c r="G32" t="n">
-        <v>0.009692307692307693</v>
+        <v>0.007875</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -3858,14 +3856,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>265.7:449.0</t>
+          <t>263.198:447.8</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007</v>
+        <v>0.00525</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -3886,14 +3884,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>272.298:462.0</t>
+          <t>271.998:459.305</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007</v>
+        <v>0.007875</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -3914,14 +3912,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>273.095:477.7</t>
+          <t>271.9:474.302</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00525</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -3942,14 +3940,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>275.598:481.11</t>
+          <t>274.195:484.102</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.00525</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -3970,14 +3968,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>278.7:500.403</t>
+          <t>280.498:502.6</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00525</v>
+        <v>0.007636363636363636</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -3998,14 +3996,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>279.598:503.902</t>
+          <t>282.1:501.907</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00525</v>
+        <v>0.007875</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -4026,7 +4024,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>283.695:512.2</t>
+          <t>285.0:513.902</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4054,7 +4052,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>286.898:523.102</t>
+          <t>289.695:521.903</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4082,14 +4080,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>291.495:537.202</t>
+          <t>290.295:536.902</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.012</v>
+        <v>0.00525</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -4110,14 +4108,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>291.498:558.2</t>
+          <t>289.098:558.203</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G42" t="n">
-        <v>0.007</v>
+        <v>0.007875</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -4138,7 +4136,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>295.098:559.802</t>
+          <t>294.6:562.1</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4222,14 +4220,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>234.9:323.902</t>
+          <t>236.1:323.602</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005121951219512195</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H2" t="n">
         <v>0.9</v>
@@ -4250,14 +4248,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>268.2:458.1</t>
+          <t>271.4:456.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00175</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -4278,14 +4276,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>295.995:562.4</t>
+          <t>296.9:559.7</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -4306,14 +4304,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>316.995:639.8</t>
+          <t>316.1:639.302</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.00168</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -4334,14 +4332,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>333.698:702.702</t>
+          <t>331.7:703.7</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003230769230769231</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -4362,14 +4360,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>339.898:737.5</t>
+          <t>342.298:738.202</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00175</v>
+        <v>0.00168</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -4390,14 +4388,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>344.0:765.9</t>
+          <t>344.798:766.402</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -4418,14 +4416,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>348.895:783.802</t>
+          <t>349.995:783.302</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.00168</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -4446,14 +4444,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>347.6:784.802</t>
+          <t>350.293:788.812</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -4474,14 +4472,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>343.298:778.302</t>
+          <t>346.098:780.8</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -4502,14 +4500,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>340.895:755.305</t>
+          <t>339.895:754.902</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0.001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00175</v>
+        <v>0.00168</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -4530,14 +4528,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>335.8:729.4</t>
+          <t>334.993:727.603</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -4558,14 +4556,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>322.8:688.605</t>
+          <t>325.093:687.402</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.00168</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -4586,14 +4584,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>312.2:641.31</t>
+          <t>313.292:642.21</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -4614,14 +4612,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>300.1:581.7</t>
+          <t>301.198:580.6</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003230769230769231</v>
+        <v>0.00168</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -4642,14 +4640,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>286.098:525.5</t>
+          <t>286.9:525.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -4670,14 +4668,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>275.2:475.4</t>
+          <t>272.7:471.905</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.003230769230769231</v>
+        <v>0.00168</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -4698,14 +4696,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>263.795:430.105</t>
+          <t>263.59:431.3</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00175</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -4726,14 +4724,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>257.198:403.4</t>
+          <t>257.4:402.4</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0.001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00175</v>
+        <v>0.00168</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -4754,14 +4752,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>255.8:400.3</t>
+          <t>257.1:400.002</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00175</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -4782,14 +4780,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>255.1:405.5</t>
+          <t>256.6:406.9</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -4810,14 +4808,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>262.095:418.505</t>
+          <t>259.698:418.2</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00175</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -4838,14 +4836,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>265.3:442.2</t>
+          <t>265.2:440.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.00168</v>
       </c>
       <c r="H24" t="n">
         <v>0.9</v>
@@ -4866,7 +4864,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>271.298:451.302</t>
+          <t>270.098:450.0</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4894,14 +4892,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>271.5:466.1</t>
+          <t>271.5:465.1</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -4922,14 +4920,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>275.998:472.6</t>
+          <t>272.998:474.6</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G27" t="n">
-        <v>0.003230769230769231</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -4950,14 +4948,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>273.098:474.902</t>
+          <t>275.395:473.5</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -4978,14 +4976,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>277.5:479.403</t>
+          <t>276.3:477.502</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0.001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00175</v>
+        <v>0.00168</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -5006,14 +5004,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>273.6:465.202</t>
+          <t>273.1:464.6</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00175</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -5034,14 +5032,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>273.1:469.502</t>
+          <t>272.2:468.7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006</v>
+        <v>0.00168</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -5062,14 +5060,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>272.4:466.905</t>
+          <t>271.3:464.3</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -5090,7 +5088,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>269.198:459.4</t>
+          <t>267.693:458.2</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -5118,14 +5116,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>268.5:459.5</t>
+          <t>268.2:458.005</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -5146,14 +5144,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>272.998:477.305</t>
+          <t>275.498:477.2</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -5174,14 +5172,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>274.8:480.802</t>
+          <t>274.293:481.4</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003230769230769231</v>
+        <v>0.002470588235294118</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -5202,7 +5200,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>273.3:483.0</t>
+          <t>272.598:482.905</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5230,7 +5228,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>274.4:469.0</t>
+          <t>271.8:472.005</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -5258,14 +5256,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>267.3:450.602</t>
+          <t>265.495:449.002</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0.001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00175</v>
+        <v>0.00168</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -5286,14 +5284,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>263.1:426.502</t>
+          <t>263.2:425.1</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.00168</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -5314,14 +5312,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>254.2:392.402</t>
+          <t>255.1:394.6</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00175</v>
+        <v>0.003073170731707317</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -5342,14 +5340,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>248.3:359.7</t>
+          <t>247.898:361.202</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -5370,14 +5368,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>239.698:330.4</t>
+          <t>239.3:329.2</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G43" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.00168</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -5454,14 +5452,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>255.7:347.0</t>
+          <t>255.4:346.9</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.189</v>
+        <v>0.173</v>
       </c>
       <c r="G2" t="n">
-        <v>0.189</v>
+        <v>0.173</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -5482,14 +5480,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>287.893:487.102</t>
+          <t>286.7:486.5</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01229268292682927</v>
+        <v>0.01331707317073171</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -5510,14 +5508,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>317.385:636.412</t>
+          <t>317.898:635.505</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008129032258064516</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -5538,14 +5536,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>344.388:782.0</t>
+          <t>341.3:782.8</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -5566,14 +5564,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>372.498:913.31</t>
+          <t>364.298:912.102</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -5594,14 +5592,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>389.493:1016.4</t>
+          <t>379.695:1017.4</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -5622,14 +5620,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>395.495:1093.712</t>
+          <t>396.595:1089.8</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007</v>
+        <v>0.00525</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -5650,14 +5648,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>402.79:1157.2</t>
+          <t>401.892:1162.4</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.00525</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -5678,14 +5676,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>415.9:1207.805</t>
+          <t>412.4:1206.8</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -5706,7 +5704,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>413.097:1250.428</t>
+          <t>410.4:1247.202</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5734,14 +5732,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>426.073:1261.3</t>
+          <t>419.483:1258.512</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007</v>
+        <v>0.00525</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -5762,14 +5760,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>422.59:1276.5</t>
+          <t>416.292:1281.2</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0.003</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.006</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -5790,14 +5788,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>409.598:1266.605</t>
+          <t>422.388:1271.608</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -5818,14 +5816,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>428.3:1258.608</t>
+          <t>409.495:1250.108</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -5846,14 +5844,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>414.285:1226.912</t>
+          <t>406.0:1225.012</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.006</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -5874,14 +5872,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>403.99:1203.702</t>
+          <t>398.393:1203.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -5902,14 +5900,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>396.893:1180.5</t>
+          <t>393.3:1181.2</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006461538461538461</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -5930,14 +5928,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>390.997:1149.802</t>
+          <t>394.797:1149.6</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.006</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -5958,14 +5956,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>381.49:1108.107</t>
+          <t>385.288:1114.602</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0.002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -5986,14 +5984,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>380.6:1082.51</t>
+          <t>374.28:1074.602</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0.003</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.006</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -6014,14 +6012,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>368.898:1041.705</t>
+          <t>383.093:1036.9</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="G22" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008129032258064516</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -6042,11 +6040,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>368.5:1007.412</t>
+          <t>368.965:1007.405</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="G23" t="n">
         <v>0.007636363636363636</v>
@@ -6070,14 +6068,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>356.798:953.818</t>
+          <t>351.47:956.802</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008076923076923077</v>
       </c>
       <c r="H24" t="n">
         <v>0.9</v>
@@ -6098,14 +6096,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>353.1:923.702</t>
+          <t>348.975:926.705</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -6126,14 +6124,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>352.795:891.1</t>
+          <t>349.5:892.6</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.006461538461538461</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -6154,14 +6152,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>340.198:855.3</t>
+          <t>341.398:851.8</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007</v>
+        <v>0.008129032258064516</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -6182,14 +6180,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>337.795:827.6</t>
+          <t>335.5:824.705</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.00525</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -6210,14 +6208,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>330.795:789.402</t>
+          <t>336.895:789.602</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -6238,14 +6236,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>327.298:754.6</t>
+          <t>327.68:754.402</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="G30" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -6266,14 +6264,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>331.698:737.602</t>
+          <t>323.198:737.3</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008076923076923077</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -6294,14 +6292,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>315.497:705.2</t>
+          <t>319.997:706.805</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.002</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.0105</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -6322,14 +6320,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>312.198:681.1</t>
+          <t>317.995:680.708</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008076923076923077</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -6350,14 +6348,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>313.4:660.902</t>
+          <t>312.095:665.3</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="G34" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.008076923076923077</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -6378,14 +6376,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>303.398:639.4</t>
+          <t>305.49:640.71</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.0121578947368421</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -6406,14 +6404,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>303.593:631.208</t>
+          <t>304.5:629.302</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009692307692307691</v>
+        <v>0.009187500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -6434,14 +6432,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>298.8:610.102</t>
+          <t>303.695:607.002</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.008647058823529412</v>
+        <v>0.00525</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -6462,14 +6460,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>297.295:601.0</t>
+          <t>297.6:601.602</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0105</v>
+        <v>0.0121578947368421</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -6490,14 +6488,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>297.295:592.502</t>
+          <t>296.4:595.2</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="G39" t="n">
-        <v>0.009081081081081082</v>
+        <v>0.01292307692307692</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -6518,14 +6516,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>300.795:590.9</t>
+          <t>298.995:587.102</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.009081081081081082</v>
+        <v>0.008129032258064516</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -6546,14 +6544,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>303.198:592.602</t>
+          <t>304.4:592.4</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007</v>
+        <v>0.008129032258064516</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -6574,14 +6572,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>296.895:586.702</t>
+          <t>295.6:586.8</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.009081081081081082</v>
+        <v>0.01331707317073171</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -6602,14 +6600,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>291.9:582.205</t>
+          <t>297.792:580.902</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009692307692307691</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -6686,14 +6684,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38.349:369.71</t>
+          <t>38.399:368.75</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0170625</v>
+        <v>0.007</v>
       </c>
       <c r="H2" t="n">
         <v>0.9</v>
@@ -6714,14 +6712,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>232.3:925.051</t>
+          <t>239.124:928.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.004</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -6742,14 +6740,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>275.834:1201.91</t>
+          <t>261.0:1203.362</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -6770,14 +6768,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>247.25:1255.15</t>
+          <t>264.497:1256.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.005478260869565217</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -6798,14 +6796,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>244.8:1226.55</t>
+          <t>235.05:1227.551</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.004</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -6826,14 +6824,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>213.39:1149.0</t>
+          <t>203.649:1148.95</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0.003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004500000000000001</v>
+        <v>0.005478260869565217</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -6854,14 +6852,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>188.096:1045.554</t>
+          <t>178.995:1043.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004500000000000001</v>
+        <v>0.007</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -6882,14 +6880,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>162.65:900.06</t>
+          <t>158.546:924.863</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0.001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.003</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -6910,14 +6908,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>125.686:794.178</t>
+          <t>134.031:793.651</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -6938,14 +6936,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>99.6:693.05</t>
+          <t>100.894:671.95</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.007</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -6966,14 +6964,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>78.936:565.521</t>
+          <t>79.396:567.46</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004500000000000001</v>
+        <v>0.007</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -6994,14 +6992,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>52.499:466.55</t>
+          <t>51.195:467.402</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01013793103448276</v>
+        <v>0.006461538461538461</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -7022,14 +7020,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>39.549:375.85</t>
+          <t>35.6:375.5</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>0.014</v>
+        <v>0.0118125</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -7050,14 +7048,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26.1:305.7</t>
+          <t>26.235:306.302</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01490322580645161</v>
+        <v>0.0118125</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -7078,14 +7076,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>22.448:241.551</t>
+          <t>16.799:242.0</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02717647058823529</v>
+        <v>0.02841176470588235</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -7106,14 +7104,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14.699:187.552</t>
+          <t>15.094:188.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.018</v>
+        <v>0.026</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02290909090909091</v>
+        <v>0.0312</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -7134,14 +7132,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.948:143.351</t>
+          <t>10.85:143.501</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.039</v>
+        <v>0.057</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04550000000000001</v>
+        <v>0.0647027027027027</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -7162,14 +7160,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.748:107.801</t>
+          <t>8.699:107.95</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05562162162162163</v>
+        <v>0.06066666666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -7190,18 +7188,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.749:78.5</t>
+          <t>10.348:78.45</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1492105263157895</v>
+        <v>0.1536315789473684</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>[0.0352038]</t>
+          <t>[0.02242806]</t>
         </is>
       </c>
     </row>
@@ -7220,14 +7218,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.25:59.1</t>
+          <t>9.149:59.151</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.305</v>
+        <v>0.25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.32025</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
@@ -7248,14 +7246,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11.295:42.1</t>
+          <t>10.5:42.1</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.516</v>
+        <v>0.544</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5285853658536586</v>
+        <v>0.5572682926829269</v>
       </c>
       <c r="H22" t="n">
         <v>0.001</v>
@@ -7276,14 +7274,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11.55:32.55</t>
+          <t>11.349:32.85</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.949</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.949</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -7304,14 +7302,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.35:26.1</t>
+          <t>9.25:25.85</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.29</v>
+        <v>0.276</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3123076923076923</v>
+        <v>0.2898000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -7332,14 +7330,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.15:21.9</t>
+          <t>8.0:21.95</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03</v>
+        <v>0.01909090909090909</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -7360,14 +7358,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.75:20.451</t>
+          <t>6.85:20.301</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>0.002</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0035</v>
+        <v>0.004</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -7388,14 +7386,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.6:19.3</t>
+          <t>5.45:19.4</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -7416,14 +7414,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.15:19.1</t>
+          <t>5.1:19.1</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.006461538461538461</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -7444,14 +7442,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.55:19.05</t>
+          <t>4.6:18.8</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0.001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.003</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -7472,14 +7470,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.7:18.35</t>
+          <t>3.6:18.35</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.004</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -7500,14 +7498,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.099:18.2</t>
+          <t>3.15:18.2</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.001909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -7528,7 +7526,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.95:18.101</t>
+          <t>2.85:18.15</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -7556,14 +7554,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.95:18.1</t>
+          <t>3.15:18.2</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -7584,14 +7582,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.35:18.25</t>
+          <t>3.7:18.25</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0.001</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.003</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -7612,7 +7610,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.4:18.3</t>
+          <t>3.45:18.351</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -7640,14 +7638,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.05:18.2</t>
+          <t>3.1:18.3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -7668,14 +7666,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.3:18.2</t>
+          <t>3.2:18.3</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -7696,14 +7694,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.2:18.2</t>
+          <t>3.15:18.25</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0.001</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001909090909090909</v>
+        <v>0.003</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -7724,14 +7722,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.05:18.1</t>
+          <t>2.999:18.151</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.006461538461538461</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -7752,14 +7750,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.95:18.25</t>
+          <t>2.9:18.25</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -7780,14 +7778,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.35:18.3</t>
+          <t>3.25:18.2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.001909090909090909</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -7808,14 +7806,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.15:18.251</t>
+          <t>3.5:18.201</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -7836,14 +7834,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.2:18.2</t>
+          <t>3.35:18.2</t>
         </is>
       </c>
       <c r="F43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.003</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.004500000000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>

--- a/reports/TS_Speck_significant_times.xlsx
+++ b/reports/TS_Speck_significant_times.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSU" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ATP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MCC950_ATP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MCC950_MSU" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MCC950_Nigericin" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="MSU" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Nigericin" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,18 +490,18 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.1:78.1</t>
+          <t>39.998:78.0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.127</v>
+        <v>0.114</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0.08108391]</t>
+          <t>[0.24508851]</t>
         </is>
       </c>
     </row>
@@ -520,14 +520,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>41.148:88.701</t>
+          <t>41.5:88.75</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.064</v>
+        <v>0.052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -548,14 +548,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.946:98.4</t>
+          <t>38.85:98.2</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0.064</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -576,14 +576,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41.15:98.102</t>
+          <t>40.049:97.9</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -604,14 +604,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.599:102.45</t>
+          <t>38.6:102.701</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -632,14 +632,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>40.199:102.0</t>
+          <t>40.449:101.05</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.056</v>
+        <v>0.047</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -660,14 +660,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>41.25:97.751</t>
+          <t>40.249:97.45</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -688,14 +688,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40.699:95.6</t>
+          <t>39.899:95.75</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.058</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -716,14 +716,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>42.3:87.8</t>
+          <t>41.799:87.701</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.065</v>
+        <v>0.049</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -744,14 +744,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>41.0:79.05</t>
+          <t>41.4:79.35</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -772,19 +772,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>42.2:76.4</t>
+          <t>42.648:76.25</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2844545454545454</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>[0.84207639]</t>
-        </is>
+        <v>0.2825454545454545</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -802,18 +800,18 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>41.7:65.75</t>
+          <t>41.55:65.65</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.142</v>
+        <v>0.137</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>[0.01581031]</t>
+          <t>[0.02814289]</t>
         </is>
       </c>
     </row>
@@ -832,14 +830,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>41.2:61.251</t>
+          <t>41.55:61.25</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.213</v>
+        <v>0.224</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3195</v>
+        <v>0.3273103448275862</v>
       </c>
       <c r="H14" t="n">
         <v>0.001</v>
@@ -860,14 +858,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>40.499:58.85</t>
+          <t>40.4:59.1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.309</v>
+        <v>0.291</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3817058823529412</v>
+        <v>0.3594705882352941</v>
       </c>
       <c r="H15" t="n">
         <v>0.001</v>
@@ -888,14 +886,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>40.45:57.101</t>
+          <t>40.499:57.45</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4139999999999999</v>
+        <v>0.4104</v>
       </c>
       <c r="H16" t="n">
         <v>0.001</v>
@@ -916,14 +914,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>39.65:53.95</t>
+          <t>39.5:53.95</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.578</v>
+        <v>0.598</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6069</v>
+        <v>0.6279</v>
       </c>
       <c r="H17" t="n">
         <v>0.001</v>
@@ -944,14 +942,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>36.9:51.1</t>
+          <t>36.95:51.15</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.949</v>
+        <v>0.963</v>
       </c>
       <c r="G18" t="n">
-        <v>0.949</v>
+        <v>0.963</v>
       </c>
       <c r="H18" t="n">
         <v>0.001</v>
@@ -972,14 +970,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>35.899:50.95</t>
+          <t>36.099:50.75</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.859</v>
+        <v>0.827</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8799512195121951</v>
+        <v>0.847170731707317</v>
       </c>
       <c r="H19" t="n">
         <v>0.001</v>
@@ -1000,14 +998,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>34.3:48.95</t>
+          <t>34.2:49.1</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.543</v>
+        <v>0.571</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5847692307692308</v>
+        <v>0.6149230769230769</v>
       </c>
       <c r="H20" t="n">
         <v>0.001</v>
@@ -1028,14 +1026,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>33.55:48.051</t>
+          <t>33.45:48.151</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.434</v>
+        <v>0.445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4796842105263158</v>
+        <v>0.4918421052631579</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
@@ -1056,14 +1054,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>32.65:47.6</t>
+          <t>32.65:47.55</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.386</v>
+        <v>0.373</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4381621621621622</v>
+        <v>0.4234054054054054</v>
       </c>
       <c r="H22" t="n">
         <v>0.001</v>
@@ -1084,14 +1082,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>32.749:47.75</t>
+          <t>32.7:47.95</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="G23" t="n">
-        <v>0.427</v>
+        <v>0.4234054054054054</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -1112,14 +1110,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>30.65:46.45</t>
+          <t>30.9:46.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.242</v>
+        <v>0.226</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3504827586206897</v>
+        <v>0.3273103448275862</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -1140,18 +1138,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29.899:45.5</t>
+          <t>29.7:45.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.149</v>
+        <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[0.0066568]</t>
+          <t>[0.01999964]</t>
         </is>
       </c>
     </row>
@@ -1170,18 +1168,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29.3:45.2</t>
+          <t>29.45:45.15</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.133</v>
+        <v>0.144</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>[0.04364863]</t>
+          <t>[0.0124174]</t>
         </is>
       </c>
     </row>
@@ -1200,18 +1198,18 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>29.299:45.65</t>
+          <t>29.35:45.55</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.142</v>
+        <v>0.133</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>[0.01581031]</t>
+          <t>[0.04364863]</t>
         </is>
       </c>
     </row>
@@ -1230,14 +1228,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>28.05:45.6</t>
+          <t>28.35:45.7</t>
         </is>
       </c>
       <c r="F28" t="n">
         <v>0.148</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1260,18 +1258,18 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>27.6:45.35</t>
+          <t>27.549:45.35</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.122</v>
+        <v>0.126</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>[0.12653702]</t>
+          <t>[0.08754742]</t>
         </is>
       </c>
     </row>
@@ -1290,18 +1288,18 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>28.45:45.5</t>
+          <t>28.25:45.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.138</v>
+        <v>0.133</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[0.0251012]</t>
+          <t>[0.04364863]</t>
         </is>
       </c>
     </row>
@@ -1320,18 +1318,18 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27.699:45.05</t>
+          <t>27.65:45.15</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.11</v>
+        <v>0.104</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[0.32487009]</t>
+          <t>[0.47129083]</t>
         </is>
       </c>
     </row>
@@ -1350,18 +1348,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26.45:45.001</t>
+          <t>26.4:45.15</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.092</v>
+        <v>0.106</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.71892171]</t>
+          <t>[0.42375526]</t>
         </is>
       </c>
     </row>
@@ -1380,14 +1378,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>28.399:46.9</t>
+          <t>28.7:47.05</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.205</v>
+        <v>0.217</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3188888888888888</v>
+        <v>0.3273103448275862</v>
       </c>
       <c r="H33" t="n">
         <v>0.001</v>
@@ -1408,14 +1406,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>27.5:46.65</t>
+          <t>27.6:46.55</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.195</v>
+        <v>0.17</v>
       </c>
       <c r="G34" t="n">
-        <v>0.315</v>
+        <v>0.2975</v>
       </c>
       <c r="H34" t="n">
         <v>0.001</v>
@@ -1436,18 +1434,18 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>25.849:45.95</t>
+          <t>26.15:45.8</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.121</v>
+        <v>0.135</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[0.13864166]</t>
+          <t>[0.0352038]</t>
         </is>
       </c>
     </row>
@@ -1466,14 +1464,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>27.35:47.5</t>
+          <t>27.3:47.3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.195</v>
+        <v>0.209</v>
       </c>
       <c r="G36" t="n">
-        <v>0.315</v>
+        <v>0.3273103448275862</v>
       </c>
       <c r="H36" t="n">
         <v>0.001</v>
@@ -1494,14 +1492,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>27.1:46.95</t>
+          <t>26.95:46.801</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.18</v>
+        <v>0.167</v>
       </c>
       <c r="G37" t="n">
-        <v>0.315</v>
+        <v>0.2975</v>
       </c>
       <c r="H37" t="n">
         <v>0.001</v>
@@ -1522,18 +1520,18 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26.15:45.901</t>
+          <t>25.949:45.751</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.117</v>
+        <v>0.13</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2844545454545454</v>
+        <v>0.2825454545454545</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>[0.19444512]</t>
+          <t>[0.05978652]</t>
         </is>
       </c>
     </row>
@@ -1552,14 +1550,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>26.3:47.5</t>
+          <t>26.0:47.5</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G39" t="n">
-        <v>0.315</v>
+        <v>0.3024</v>
       </c>
       <c r="H39" t="n">
         <v>0.001</v>
@@ -1580,14 +1578,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>28.05:48.05</t>
+          <t>27.899:48.251</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.271</v>
+        <v>0.26</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3550909090909091</v>
+        <v>0.3594705882352941</v>
       </c>
       <c r="H40" t="n">
         <v>0.001</v>
@@ -1608,14 +1606,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>26.65:48.7</t>
+          <t>26.849:48.45</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.258</v>
+        <v>0.277</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3550909090909091</v>
+        <v>0.3594705882352941</v>
       </c>
       <c r="H41" t="n">
         <v>0.001</v>
@@ -1636,14 +1634,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>26.8:48.801</t>
+          <t>27.2:48.95</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.279</v>
+        <v>0.284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3550909090909091</v>
+        <v>0.3594705882352941</v>
       </c>
       <c r="H42" t="n">
         <v>0.001</v>
@@ -1664,14 +1662,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27.85:48.65</t>
+          <t>27.9:48.35</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.277</v>
+        <v>0.276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3550909090909091</v>
+        <v>0.3594705882352941</v>
       </c>
       <c r="H43" t="n">
         <v>0.001</v>
@@ -1748,14 +1746,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>221.6:274.9</t>
+          <t>221.4:274.802</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.914</v>
+        <v>0.919</v>
       </c>
       <c r="G2" t="n">
-        <v>0.914</v>
+        <v>0.919</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -1776,14 +1774,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>218.698:269.6</t>
+          <t>218.9:269.7</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.854</v>
+        <v>0.847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8748292682926829</v>
+        <v>0.8789268292682927</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
@@ -1804,14 +1802,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>214.8:264.3</t>
+          <t>215.8:264.1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.632</v>
+        <v>0.646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7174054054054054</v>
+        <v>0.7332972972972973</v>
       </c>
       <c r="H4" t="n">
         <v>0.001</v>
@@ -1832,14 +1830,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>213.9:263.5</t>
+          <t>212.998:263.602</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.536</v>
+        <v>0.577</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6253333333333334</v>
+        <v>0.6731666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0.001</v>
@@ -1860,14 +1858,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>206.498:255.602</t>
+          <t>206.895:255.302</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.257</v>
+        <v>0.273</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3598</v>
+        <v>0.3698709677419355</v>
       </c>
       <c r="H6" t="n">
         <v>0.001</v>
@@ -1888,14 +1886,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>203.1:255.4</t>
+          <t>202.6:255.2</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.208</v>
+        <v>0.227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3012413793103448</v>
+        <v>0.3287586206896552</v>
       </c>
       <c r="H7" t="n">
         <v>0.001</v>
@@ -1916,14 +1914,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>199.0:253.902</t>
+          <t>199.0:253.7</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2566666666666667</v>
+        <v>0.2582222222222222</v>
       </c>
       <c r="H8" t="n">
         <v>0.001</v>
@@ -1944,18 +1942,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>197.5:249.7</t>
+          <t>197.2:250.102</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.14875</v>
+        <v>0.147</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[0.86259943]</t>
+          <t>[0.88312406]</t>
         </is>
       </c>
     </row>
@@ -1974,14 +1972,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>190.5:250.4</t>
+          <t>190.098:251.103</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1296521739130435</v>
+        <v>0.1351304347826087</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -2002,14 +2000,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>185.898:247.9</t>
+          <t>186.095:247.3</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08178947368421052</v>
+        <v>0.07294736842105264</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -2030,7 +2028,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>183.5:244.3</t>
+          <t>183.1:243.7</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -2058,14 +2056,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>182.495:243.8</t>
+          <t>182.6:244.4</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06037500000000001</v>
+        <v>0.051</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -2086,14 +2084,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>176.2:241.603</t>
+          <t>175.9:242.0</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0385</v>
+        <v>0.0315</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -2114,14 +2112,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>171.5:240.1</t>
+          <t>171.3:239.8</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.0315</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -2142,14 +2140,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>170.9:238.703</t>
+          <t>170.498:238.2</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.0315</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -2170,14 +2168,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>171.4:239.0</t>
+          <t>171.495:239.9</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.042</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -2198,14 +2196,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>173.4:241.6</t>
+          <t>173.298:241.702</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="G18" t="n">
-        <v>0.042</v>
+        <v>0.051</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -2226,14 +2224,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>180.3:242.9</t>
+          <t>180.3:242.403</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.006</v>
+        <v>0.025</v>
       </c>
       <c r="G19" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.065625</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -2254,14 +2252,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>184.598:245.602</t>
+          <t>185.7:245.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.035</v>
+        <v>0.032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08166666666666668</v>
+        <v>0.07294736842105264</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -2282,14 +2280,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>189.5:246.9</t>
+          <t>189.2:247.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.042</v>
+        <v>0.049</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08820000000000001</v>
+        <v>0.1029</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -2310,14 +2308,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>195.5:248.8</t>
+          <t>195.8:248.802</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.046</v>
+        <v>0.074</v>
       </c>
       <c r="G22" t="n">
-        <v>0.092</v>
+        <v>0.1351304347826087</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -2338,14 +2336,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>205.1:256.8</t>
+          <t>205.3:256.6</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.266</v>
+        <v>0.254</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3603870967741936</v>
+        <v>0.3556</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -2366,14 +2364,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>209.8:260.9</t>
+          <t>209.5:260.5</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4989090909090909</v>
+        <v>0.5014545454545455</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -2394,14 +2392,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>212.695:260.4</t>
+          <t>212.798:260.4</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.505</v>
+        <v>0.469</v>
       </c>
       <c r="G25" t="n">
-        <v>0.606</v>
+        <v>0.57</v>
       </c>
       <c r="H25" t="n">
         <v>0.001</v>
@@ -2422,14 +2420,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>219.6:270.302</t>
+          <t>219.8:270.2</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.85</v>
+        <v>0.858</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8748292682926829</v>
+        <v>0.8789268292682927</v>
       </c>
       <c r="H26" t="n">
         <v>0.001</v>
@@ -2450,14 +2448,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>218.8:265.6</t>
+          <t>218.398:265.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.723</v>
+        <v>0.676</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7991052631578947</v>
+        <v>0.7471578947368421</v>
       </c>
       <c r="H27" t="n">
         <v>0.001</v>
@@ -2478,14 +2476,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>228.998:274.8</t>
+          <t>228.3:274.7</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.776</v>
+        <v>0.783</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8356923076923077</v>
+        <v>0.8432307692307692</v>
       </c>
       <c r="H28" t="n">
         <v>0.001</v>
@@ -2506,14 +2504,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>233.9:283.6</t>
+          <t>234.2:283.5</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.455</v>
+        <v>0.475</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5620588235294117</v>
+        <v>0.57</v>
       </c>
       <c r="H29" t="n">
         <v>0.001</v>
@@ -2534,14 +2532,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>239.8:289.3</t>
+          <t>239.9:288.9</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3635625000000001</v>
+        <v>0.3714375</v>
       </c>
       <c r="H30" t="n">
         <v>0.001</v>
@@ -2562,14 +2560,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>241.8:295.2</t>
+          <t>242.298:294.703</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.198</v>
+        <v>0.191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.297</v>
+        <v>0.2865</v>
       </c>
       <c r="H31" t="n">
         <v>0.001</v>
@@ -2590,18 +2588,18 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>244.7:303.4</t>
+          <t>245.2:303.2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.118</v>
+        <v>0.109</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1906153846153846</v>
+        <v>0.18312</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>[0.17907401]</t>
+          <t>[0.34858758]</t>
         </is>
       </c>
     </row>
@@ -2620,18 +2618,18 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>243.9:303.0</t>
+          <t>243.8:302.403</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.118</v>
+        <v>0.152</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1906153846153846</v>
+        <v>0.2455384615384615</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>[0.17907401]</t>
+          <t>[0.0045081]</t>
         </is>
       </c>
     </row>
@@ -2650,14 +2648,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>248.5:320.302</t>
+          <t>248.898:320.302</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1202727272727273</v>
+        <v>0.124</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -2678,14 +2676,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>254.498:332.002</t>
+          <t>254.298:331.6</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07164705882352941</v>
+        <v>0.06670588235294117</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -2706,14 +2704,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>258.0:329.3</t>
+          <t>257.7:329.302</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0532</v>
+        <v>0.0644</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -2734,14 +2732,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>261.998:341.6</t>
+          <t>260.2:340.902</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0385</v>
+        <v>0.051</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -2762,14 +2760,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>262.9:356.0</t>
+          <t>263.5:355.302</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.0315</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -2790,14 +2788,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>263.5:361.805</t>
+          <t>262.698:361.9</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0.011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0385</v>
+        <v>0.0462</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -2818,14 +2816,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>268.398:372.5</t>
+          <t>266.8:372.6</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03733333333333334</v>
+        <v>0.0315</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -2846,14 +2844,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>268.295:376.1</t>
+          <t>269.7:374.5</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.021</v>
+        <v>0.0315</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -2874,14 +2872,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>269.498:383.9</t>
+          <t>268.998:383.402</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0.001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.021</v>
+        <v>0.0315</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -2902,14 +2900,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>273.398:398.1</t>
+          <t>273.798:398.802</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G43" t="n">
-        <v>0.028</v>
+        <v>0.0315</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -2986,14 +2984,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>191.7:259.402</t>
+          <t>191.9:259.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.83</v>
+        <v>0.842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8574146341463414</v>
+        <v>0.8625365853658536</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -3014,14 +3012,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>184.6:251.6</t>
+          <t>184.3:251.9</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.548</v>
+        <v>0.592</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6393333333333334</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0.001</v>
@@ -3042,14 +3040,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>179.8:247.6</t>
+          <t>179.8:246.5</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.452</v>
+        <v>0.431</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5916</v>
+        <v>0.5656875</v>
       </c>
       <c r="H4" t="n">
         <v>0.001</v>
@@ -3070,14 +3068,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>181.0:248.902</t>
+          <t>181.4:249.5</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.476</v>
+        <v>0.506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5916</v>
+        <v>0.6072</v>
       </c>
       <c r="H5" t="n">
         <v>0.001</v>
@@ -3098,14 +3096,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>181.6:247.802</t>
+          <t>182.0:248.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.493</v>
+        <v>0.455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5916</v>
+        <v>0.5790909090909091</v>
       </c>
       <c r="H6" t="n">
         <v>0.001</v>
@@ -3126,14 +3124,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>186.598:251.6</t>
+          <t>186.1:252.6</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.621</v>
+        <v>0.608</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6863684210526315</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0.001</v>
@@ -3154,14 +3152,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>186.898:252.3</t>
+          <t>187.1:251.902</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6810810810810811</v>
+        <v>0.6719999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0.001</v>
@@ -3182,14 +3180,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>195.4:261.0</t>
+          <t>195.198:260.9</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0.001</v>
@@ -3210,14 +3208,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>201.1:266.0</t>
+          <t>201.2:265.3</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.837</v>
+        <v>0.824</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8574146341463414</v>
+        <v>0.8625365853658536</v>
       </c>
       <c r="H10" t="n">
         <v>0.001</v>
@@ -3238,7 +3236,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>202.4:270.7</t>
+          <t>202.7:271.2</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -3266,14 +3264,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>208.5:280.9</t>
+          <t>208.4:281.0</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.489</v>
+        <v>0.478</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5916</v>
+        <v>0.5904705882352941</v>
       </c>
       <c r="H12" t="n">
         <v>0.001</v>
@@ -3294,14 +3292,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>210.698:286.903</t>
+          <t>210.8:286.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.433</v>
+        <v>0.368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5866451612903225</v>
+        <v>0.4985806451612903</v>
       </c>
       <c r="H13" t="n">
         <v>0.001</v>
@@ -3322,14 +3320,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>214.9:292.4</t>
+          <t>214.898:292.3</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3947999999999999</v>
+        <v>0.4004</v>
       </c>
       <c r="H14" t="n">
         <v>0.001</v>
@@ -3350,14 +3348,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>216.7:304.3</t>
+          <t>216.598:302.902</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.218</v>
+        <v>0.193</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3157241379310345</v>
+        <v>0.2795172413793103</v>
       </c>
       <c r="H15" t="n">
         <v>0.001</v>
@@ -3378,18 +3376,18 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>220.698:307.003</t>
+          <t>221.1:306.7</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.156</v>
+        <v>0.152</v>
       </c>
       <c r="G16" t="n">
-        <v>0.234</v>
+        <v>0.228</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[0.00263739]</t>
+          <t>[0.0045081]</t>
         </is>
       </c>
     </row>
@@ -3408,17 +3406,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>227.8:320.5</t>
+          <t>227.6:321.8</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.073</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1135555555555555</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.9</v>
+        <v>0.1337777777777777</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[0.84207639]</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -3436,14 +3436,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>231.6:327.002</t>
+          <t>231.498:327.8</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08723076923076922</v>
+        <v>0.08238461538461538</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -3464,14 +3464,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>233.7:346.2</t>
+          <t>235.098:346.902</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06888</v>
+        <v>0.0504</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -3492,14 +3492,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>237.898:357.9</t>
+          <t>237.598:356.9</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03652173913043478</v>
+        <v>0.04747826086956521</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -3520,14 +3520,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>236.198:356.3</t>
+          <t>236.298:354.6</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03675</v>
+        <v>0.0504</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -3548,14 +3548,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>240.9:366.5</t>
+          <t>242.2:364.7</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="G22" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -3576,14 +3576,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>245.1:378.1</t>
+          <t>246.1:378.003</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03054545454545455</v>
+        <v>0.02863636363636363</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>246.6:387.1</t>
+          <t>248.09:386.102</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -3632,14 +3632,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>250.6:394.602</t>
+          <t>252.2:395.2</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0147</v>
+        <v>0.01326315789473684</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>255.6:395.502</t>
+          <t>253.4:395.705</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -3688,14 +3688,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>253.698:402.8</t>
+          <t>256.1:402.3</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01166666666666667</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -3716,14 +3716,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>260.798:414.6</t>
+          <t>259.3:414.203</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007875</v>
+        <v>0.008400000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -3744,14 +3744,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>260.2:421.105</t>
+          <t>258.795:420.4</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0.002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.008400000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -3772,14 +3772,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>262.998:425.3</t>
+          <t>263.398:425.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00525</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -3800,14 +3800,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>264.2:436.4</t>
+          <t>264.5:434.1</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -3828,14 +3828,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>264.6:441.705</t>
+          <t>263.2:439.303</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007875</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -3856,14 +3856,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>263.198:447.8</t>
+          <t>268.398:445.902</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G33" t="n">
-        <v>0.00525</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -3884,14 +3884,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>271.998:459.305</t>
+          <t>272.7:459.702</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007875</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -3912,14 +3912,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>271.9:474.302</t>
+          <t>273.3:475.8</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -3940,14 +3940,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>274.195:484.102</t>
+          <t>276.798:483.2</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0.001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00525</v>
+        <v>0.007</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -3968,14 +3968,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>280.498:502.6</t>
+          <t>273.695:499.905</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0.002</v>
       </c>
       <c r="G37" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.008400000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -3996,14 +3996,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>282.1:501.907</t>
+          <t>282.3:503.005</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007875</v>
+        <v>0.007</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -4024,14 +4024,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>285.0:513.902</t>
+          <t>282.1:511.902</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0.001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00525</v>
+        <v>0.007</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -4052,14 +4052,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>289.695:521.903</t>
+          <t>285.095:522.4</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00525</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -4080,14 +4080,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>290.295:536.902</t>
+          <t>288.298:539.702</t>
         </is>
       </c>
       <c r="F41" t="n">
         <v>0.001</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00525</v>
+        <v>0.007</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -4108,14 +4108,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>289.098:558.203</t>
+          <t>288.998:557.8</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G42" t="n">
-        <v>0.007875</v>
+        <v>0.008400000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -4136,14 +4136,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>294.6:562.1</t>
+          <t>293.4:563.302</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.009882352941176471</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -4220,14 +4220,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>236.1:323.602</t>
+          <t>235.298:324.8</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H2" t="n">
         <v>0.9</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>271.4:456.5</t>
+          <t>267.898:458.305</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -4276,14 +4276,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>296.9:559.7</t>
+          <t>295.995:562.405</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.005</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -4304,14 +4304,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>316.1:639.302</t>
+          <t>317.798:638.1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00168</v>
+        <v>0.002625</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -4332,14 +4332,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>331.7:703.7</t>
+          <t>330.898:706.302</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -4360,14 +4360,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>342.298:738.202</t>
+          <t>341.29:740.802</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00168</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -4388,14 +4388,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>344.798:766.402</t>
+          <t>346.098:770.9</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -4416,14 +4416,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>349.995:783.302</t>
+          <t>352.298:783.202</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0.001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00168</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -4444,14 +4444,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>350.293:788.812</t>
+          <t>351.39:786.103</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -4472,14 +4472,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>346.098:780.8</t>
+          <t>350.793:777.603</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -4500,14 +4500,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>339.895:754.902</t>
+          <t>342.398:756.51</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00168</v>
+        <v>0.002625</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -4528,14 +4528,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>334.993:727.603</t>
+          <t>336.895:730.7</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -4556,14 +4556,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>325.093:687.402</t>
+          <t>323.793:685.703</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00168</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -4584,14 +4584,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>313.292:642.21</t>
+          <t>312.5:642.5</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.002625</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -4612,14 +4612,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>301.198:580.6</t>
+          <t>299.195:581.9</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00168</v>
+        <v>0.002625</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>286.9:525.0</t>
+          <t>287.793:525.203</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -4668,14 +4668,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>272.7:471.905</t>
+          <t>275.0:473.7</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -4696,14 +4696,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>263.59:431.3</t>
+          <t>263.995:430.002</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.002625</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -4724,14 +4724,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>257.4:402.4</t>
+          <t>259.795:405.6</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -4752,14 +4752,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>257.1:400.002</t>
+          <t>258.5:400.502</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -4780,14 +4780,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>256.6:406.9</t>
+          <t>257.298:407.305</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -4808,14 +4808,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>259.698:418.2</t>
+          <t>259.395:417.203</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0.002</v>
       </c>
       <c r="G23" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.002625</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -4836,14 +4836,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>265.2:440.5</t>
+          <t>263.098:441.01</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00168</v>
+        <v>0.004200000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0.9</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>270.098:450.0</t>
+          <t>270.898:450.102</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -4892,14 +4892,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>271.5:465.1</t>
+          <t>272.8:466.7</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.002625</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -4920,14 +4920,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>272.998:474.6</t>
+          <t>276.098:473.402</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -4948,14 +4948,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>275.395:473.5</t>
+          <t>273.298:476.5</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -4976,14 +4976,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>276.3:477.502</t>
+          <t>276.2:477.903</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0.001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00168</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -5004,14 +5004,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>273.1:464.6</t>
+          <t>274.498:467.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G30" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -5032,14 +5032,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>272.2:468.7</t>
+          <t>273.5:469.7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00168</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -5060,14 +5060,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>271.3:464.3</t>
+          <t>272.798:464.902</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002470588235294118</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -5088,14 +5088,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>267.693:458.2</t>
+          <t>269.3:456.9</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -5116,14 +5116,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>268.2:458.005</t>
+          <t>266.995:457.9</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.002625</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -5144,14 +5144,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>275.498:477.2</t>
+          <t>276.4:478.005</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -5172,14 +5172,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>274.293:481.4</t>
+          <t>275.898:481.002</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G36" t="n">
-        <v>0.002470588235294118</v>
+        <v>0.005</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>272.598:482.905</t>
+          <t>273.0:482.902</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -5228,14 +5228,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>271.8:472.005</t>
+          <t>272.698:471.3</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.002625</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -5256,14 +5256,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>265.495:449.002</t>
+          <t>268.098:450.205</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0.001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00168</v>
+        <v>0.001826086956521739</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -5284,14 +5284,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>263.2:425.1</t>
+          <t>262.798:424.4</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G40" t="n">
-        <v>0.00168</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -5312,14 +5312,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>255.1:394.6</t>
+          <t>254.0:393.2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003073170731707317</v>
+        <v>0.004200000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -5340,7 +5340,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>247.898:361.202</t>
+          <t>248.2:359.602</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -5368,14 +5368,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>239.3:329.2</t>
+          <t>238.6:328.7</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00168</v>
+        <v>0.003315789473684211</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -5452,14 +5452,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>255.4:346.9</t>
+          <t>255.8:345.5</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.173</v>
+        <v>0.186</v>
       </c>
       <c r="G2" t="n">
-        <v>0.173</v>
+        <v>0.186</v>
       </c>
       <c r="H2" t="n">
         <v>0.001</v>
@@ -5480,14 +5480,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>286.7:486.5</t>
+          <t>288.2:485.705</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01331707317073171</v>
+        <v>0.00945</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -5508,14 +5508,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>317.898:635.505</t>
+          <t>321.198:636.402</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008129032258064516</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -5536,14 +5536,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>341.3:782.8</t>
+          <t>343.595:778.902</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -5564,14 +5564,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>364.298:912.102</t>
+          <t>365.898:913.7</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0.001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00525</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -5592,14 +5592,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>379.695:1017.4</t>
+          <t>385.0:1015.125</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -5620,14 +5620,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>396.595:1089.8</t>
+          <t>399.497:1092.2</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -5648,14 +5648,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>401.892:1162.4</t>
+          <t>403.873:1159.505</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0.002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00525</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -5676,14 +5676,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>412.4:1206.8</t>
+          <t>411.983:1212.805</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>410.4:1247.202</t>
+          <t>415.9:1240.408</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -5732,14 +5732,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>419.483:1258.512</t>
+          <t>412.1:1261.9</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00525</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -5760,14 +5760,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>416.292:1281.2</t>
+          <t>414.698:1275.702</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006</v>
+        <v>0.007411764705882353</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -5788,14 +5788,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>422.388:1271.608</t>
+          <t>407.485:1267.102</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0.001</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00525</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -5816,14 +5816,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>409.495:1250.108</t>
+          <t>420.295:1256.605</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00525</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -5844,14 +5844,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>406.0:1225.012</t>
+          <t>418.478:1231.708</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0.003</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006</v>
+        <v>0.006631578947368422</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -5872,14 +5872,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>398.393:1203.0</t>
+          <t>414.195:1211.0</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -5900,14 +5900,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>393.3:1181.2</t>
+          <t>405.088:1181.805</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -5928,14 +5928,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>394.797:1149.6</t>
+          <t>390.1:1148.502</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -5956,14 +5956,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>385.288:1114.602</t>
+          <t>378.395:1114.6</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H20" t="n">
         <v>0.9</v>
@@ -5984,14 +5984,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>374.28:1074.602</t>
+          <t>390.693:1081.0</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H21" t="n">
         <v>0.9</v>
@@ -6012,14 +6012,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>383.093:1036.9</t>
+          <t>372.79:1044.208</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="G22" t="n">
-        <v>0.008129032258064516</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H22" t="n">
         <v>0.9</v>
@@ -6040,14 +6040,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>368.965:1007.405</t>
+          <t>363.597:1001.708</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007636363636363636</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H23" t="n">
         <v>0.9</v>
@@ -6068,14 +6068,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>351.47:956.802</t>
+          <t>357.598:953.605</t>
         </is>
       </c>
       <c r="F24" t="n">
         <v>0.005</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008076923076923077</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H24" t="n">
         <v>0.9</v>
@@ -6096,14 +6096,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>348.975:926.705</t>
+          <t>356.592:923.108</t>
         </is>
       </c>
       <c r="F25" t="n">
         <v>0.002</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00525</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -6124,14 +6124,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>349.5:892.6</t>
+          <t>348.798:892.308</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.006631578947368422</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -6152,14 +6152,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>341.398:851.8</t>
+          <t>342.1:856.7</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="G27" t="n">
-        <v>0.008129032258064516</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -6180,14 +6180,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>335.5:824.705</t>
+          <t>337.898:831.2</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00525</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -6208,14 +6208,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>336.895:789.602</t>
+          <t>329.3:788.302</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="G29" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -6236,14 +6236,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>327.68:754.402</t>
+          <t>331.8:755.505</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009599999999999999</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -6264,14 +6264,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>323.198:737.3</t>
+          <t>325.898:746.7</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.008076923076923077</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H31" t="n">
         <v>0.9</v>
@@ -6292,14 +6292,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>319.997:706.805</t>
+          <t>310.895:706.6</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0105</v>
+        <v>0.007736842105263158</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -6320,14 +6320,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>317.995:680.708</t>
+          <t>311.698:677.008</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.008076923076923077</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -6348,14 +6348,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>312.095:665.3</t>
+          <t>306.495:662.902</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G34" t="n">
-        <v>0.008076923076923077</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -6376,14 +6376,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>305.49:640.71</t>
+          <t>304.0:641.302</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0121578947368421</v>
+        <v>0.007736842105263158</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -6404,14 +6404,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>304.5:629.302</t>
+          <t>301.7:627.3</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009187500000000001</v>
+        <v>0.007411764705882353</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -6432,14 +6432,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>303.695:607.002</t>
+          <t>303.6:609.105</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00525</v>
+        <v>0.01024390243902439</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -6460,14 +6460,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>297.6:601.602</t>
+          <t>298.498:603.1</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0121578947368421</v>
+        <v>0.007736842105263158</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -6488,14 +6488,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>296.4:595.2</t>
+          <t>296.193:592.502</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01292307692307692</v>
+        <v>0.007736842105263158</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -6516,14 +6516,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>298.995:587.102</t>
+          <t>298.7:590.505</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0.006</v>
       </c>
       <c r="G40" t="n">
-        <v>0.008129032258064516</v>
+        <v>0.007411764705882353</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -6544,14 +6544,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>304.4:592.4</t>
+          <t>302.298:594.502</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="G41" t="n">
-        <v>0.008129032258064516</v>
+        <v>0.004941176470588235</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -6572,14 +6572,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>295.6:586.8</t>
+          <t>298.098:588.205</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01331707317073171</v>
+        <v>0.006774193548387097</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -6600,14 +6600,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>297.792:580.902</t>
+          <t>297.298:579.202</t>
         </is>
       </c>
       <c r="F43" t="n">
         <v>0.008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.008615384615384615</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
@@ -6684,14 +6684,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38.399:368.75</t>
+          <t>38.85:368.15</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007</v>
+        <v>0.01625806451612903</v>
       </c>
       <c r="H2" t="n">
         <v>0.9</v>
@@ -6712,14 +6712,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>239.124:928.2</t>
+          <t>237.0:928.25</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0.002</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
@@ -6740,14 +6740,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>261.0:1203.362</t>
+          <t>276.349:1207.102</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0.9</v>
@@ -6768,14 +6768,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>264.497:1256.1</t>
+          <t>262.997:1252.808</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005478260869565217</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H5" t="n">
         <v>0.9</v>
@@ -6796,14 +6796,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>235.05:1227.551</t>
+          <t>235.399:1227.4</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0.9</v>
@@ -6824,14 +6824,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>203.649:1148.95</t>
+          <t>215.438:1148.5</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005478260869565217</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0.9</v>
@@ -6852,14 +6852,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>178.995:1043.2</t>
+          <t>197.283:1044.65</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G8" t="n">
-        <v>0.007</v>
+        <v>0.0035</v>
       </c>
       <c r="H8" t="n">
         <v>0.9</v>
@@ -6880,14 +6880,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>158.546:924.863</t>
+          <t>161.046:900.453</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="H9" t="n">
         <v>0.9</v>
@@ -6908,14 +6908,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>134.031:793.651</t>
+          <t>119.59:797.251</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0.9</v>
@@ -6936,14 +6936,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>100.894:671.95</t>
+          <t>99.138:694.112</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007</v>
+        <v>0.006461538461538461</v>
       </c>
       <c r="H11" t="n">
         <v>0.9</v>
@@ -6964,14 +6964,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.396:567.46</t>
+          <t>72.65:567.875</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007</v>
+        <v>0.01013793103448276</v>
       </c>
       <c r="H12" t="n">
         <v>0.9</v>
@@ -6992,14 +6992,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>51.195:467.402</t>
+          <t>51.944:467.2</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="G13" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.0112</v>
       </c>
       <c r="H13" t="n">
         <v>0.9</v>
@@ -7020,14 +7020,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>35.6:375.5</t>
+          <t>48.75:375.85</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0118125</v>
+        <v>0.009000000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0.9</v>
@@ -7048,14 +7048,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>26.235:306.302</t>
+          <t>26.749:305.651</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.015</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0118125</v>
+        <v>0.0196875</v>
       </c>
       <c r="H15" t="n">
         <v>0.9</v>
@@ -7076,14 +7076,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>16.799:242.0</t>
+          <t>16.55:241.55</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02841176470588235</v>
+        <v>0.02594117647058823</v>
       </c>
       <c r="H16" t="n">
         <v>0.9</v>
@@ -7104,14 +7104,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15.094:188.0</t>
+          <t>12.278:187.4</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0312</v>
+        <v>0.0396</v>
       </c>
       <c r="H17" t="n">
         <v>0.9</v>
@@ -7132,14 +7132,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10.85:143.501</t>
+          <t>9.849:143.451</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0647027027027027</v>
+        <v>0.0595</v>
       </c>
       <c r="H18" t="n">
         <v>0.9</v>
@@ -7160,14 +7160,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8.699:107.95</t>
+          <t>8.05:107.9</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.052</v>
+        <v>0.061</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06066666666666667</v>
+        <v>0.06924324324324324</v>
       </c>
       <c r="H19" t="n">
         <v>0.9</v>
@@ -7188,19 +7188,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10.348:78.45</t>
+          <t>9.898:78.4</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.139</v>
+        <v>0.168</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1536315789473684</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>[0.02242806]</t>
-        </is>
+        <v>0.1856842105263158</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.001</v>
       </c>
     </row>
     <row r="21">
@@ -7218,14 +7216,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.149:59.151</t>
+          <t>9.45:59.3</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.25</v>
+        <v>0.266</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2864615384615385</v>
       </c>
       <c r="H21" t="n">
         <v>0.001</v>
@@ -7246,14 +7244,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10.5:42.1</t>
+          <t>11.0:42.15</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.544</v>
+        <v>0.534</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5572682926829269</v>
+        <v>0.5470243902439025</v>
       </c>
       <c r="H22" t="n">
         <v>0.001</v>
@@ -7274,14 +7272,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11.349:32.85</t>
+          <t>10.95:32.65</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.949</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.949</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0.001</v>
@@ -7302,14 +7300,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.25:25.85</t>
+          <t>9.2:25.651</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.276</v>
+        <v>0.299</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2898000000000001</v>
+        <v>0.31395</v>
       </c>
       <c r="H24" t="n">
         <v>0.001</v>
@@ -7330,14 +7328,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8.0:21.95</t>
+          <t>8.05:21.901</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01909090909090909</v>
+        <v>0.02545454545454546</v>
       </c>
       <c r="H25" t="n">
         <v>0.9</v>
@@ -7358,14 +7356,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.85:20.301</t>
+          <t>6.75:20.35</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="H26" t="n">
         <v>0.9</v>
@@ -7386,14 +7384,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.45:19.4</t>
+          <t>5.55:19.5</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H27" t="n">
         <v>0.9</v>
@@ -7414,14 +7412,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.1:19.1</t>
+          <t>5.15:19.051</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.006461538461538461</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0.9</v>
@@ -7442,14 +7440,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.6:18.8</t>
+          <t>4.6:18.7</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>0.001</v>
       </c>
       <c r="G29" t="n">
-        <v>0.003</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H29" t="n">
         <v>0.9</v>
@@ -7470,14 +7468,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.6:18.35</t>
+          <t>3.6:18.5</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0.9</v>
@@ -7498,7 +7496,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.15:18.2</t>
+          <t>3.2:18.2</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -7526,14 +7524,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.85:18.15</t>
+          <t>2.85:18.2</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0035</v>
       </c>
       <c r="H32" t="n">
         <v>0.9</v>
@@ -7554,14 +7552,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.15:18.2</t>
+          <t>3.0:18.2</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H33" t="n">
         <v>0.9</v>
@@ -7582,14 +7580,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.7:18.25</t>
+          <t>3.6:18.201</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0.9</v>
@@ -7610,14 +7608,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.45:18.351</t>
+          <t>3.2:18.251</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H35" t="n">
         <v>0.9</v>
@@ -7638,14 +7636,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3.1:18.3</t>
+          <t>3.1:18.151</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0.9</v>
@@ -7666,14 +7664,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.2:18.3</t>
+          <t>3.2:18.2</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G37" t="n">
-        <v>0.004</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H37" t="n">
         <v>0.9</v>
@@ -7694,14 +7692,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.15:18.25</t>
+          <t>3.2:18.2</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G38" t="n">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="H38" t="n">
         <v>0.9</v>
@@ -7722,14 +7720,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.999:18.151</t>
+          <t>3.25:18.15</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006461538461538461</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H39" t="n">
         <v>0.9</v>
@@ -7750,14 +7748,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.9:18.25</t>
+          <t>3.1:18.15</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0.001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H40" t="n">
         <v>0.9</v>
@@ -7778,14 +7776,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3.25:18.2</t>
+          <t>3.45:18.2</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="H41" t="n">
         <v>0.9</v>
@@ -7806,14 +7804,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3.5:18.201</t>
+          <t>3.35:18.15</t>
         </is>
       </c>
       <c r="F42" t="n">
         <v>0.001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.003</v>
+        <v>0.002210526315789474</v>
       </c>
       <c r="H42" t="n">
         <v>0.9</v>
@@ -7834,14 +7832,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.35:18.2</t>
+          <t>3.15:18.2</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0.9</v>
